--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\HR_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3197F0BE-847F-47D9-AA8E-DC5E6A3EF5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01647-07A3-4FD7-B478-0E38563ADE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,8 +144,8 @@
       <sheetName val="Exp_3_mean"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -153,8 +153,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B01647-07A3-4FD7-B478-0E38563ADE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306D8FF-F8ED-47A3-9539-42FE781259EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,8 +144,8 @@
       <sheetName val="Exp_3_mean"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -153,8 +153,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,8 +510,8 @@
       <c r="C2" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D2" t="e">
-        <v>#DIV/0!</v>
+      <c r="D2">
+        <v>12.333333333333334</v>
       </c>
       <c r="E2" t="e">
         <v>#DIV/0!</v>
@@ -545,8 +545,8 @@
       <c r="C3" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D3" t="e">
-        <v>#DIV/0!</v>
+      <c r="D3">
+        <v>12.333333333333334</v>
       </c>
       <c r="E3" t="e">
         <v>#DIV/0!</v>
@@ -580,8 +580,8 @@
       <c r="C4" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D4" t="e">
-        <v>#DIV/0!</v>
+      <c r="D4">
+        <v>8.3333333333333339</v>
       </c>
       <c r="E4" t="e">
         <v>#DIV/0!</v>
@@ -615,8 +615,8 @@
       <c r="C5" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D5" t="e">
-        <v>#DIV/0!</v>
+      <c r="D5">
+        <v>15.333333333333334</v>
       </c>
       <c r="E5" t="e">
         <v>#DIV/0!</v>
@@ -650,8 +650,8 @@
       <c r="C6" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D6" t="e">
-        <v>#DIV/0!</v>
+      <c r="D6">
+        <v>20</v>
       </c>
       <c r="E6" t="e">
         <v>#DIV/0!</v>
@@ -685,8 +685,8 @@
       <c r="C7" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D7" t="e">
-        <v>#DIV/0!</v>
+      <c r="D7">
+        <v>20</v>
       </c>
       <c r="E7" t="e">
         <v>#DIV/0!</v>
@@ -720,8 +720,8 @@
       <c r="C8" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D8" t="e">
-        <v>#DIV/0!</v>
+      <c r="D8">
+        <v>16</v>
       </c>
       <c r="E8" t="e">
         <v>#DIV/0!</v>
@@ -755,8 +755,8 @@
       <c r="C9" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D9" t="e">
-        <v>#DIV/0!</v>
+      <c r="D9">
+        <v>23</v>
       </c>
       <c r="E9" t="e">
         <v>#DIV/0!</v>
@@ -790,8 +790,8 @@
       <c r="C10" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D10" t="e">
-        <v>#DIV/0!</v>
+      <c r="D10">
+        <v>14.333333333333334</v>
       </c>
       <c r="E10" t="e">
         <v>#DIV/0!</v>
@@ -825,8 +825,8 @@
       <c r="C11" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D11" t="e">
-        <v>#DIV/0!</v>
+      <c r="D11">
+        <v>14.333333333333334</v>
       </c>
       <c r="E11" t="e">
         <v>#DIV/0!</v>
@@ -860,8 +860,8 @@
       <c r="C12" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D12" t="e">
-        <v>#DIV/0!</v>
+      <c r="D12">
+        <v>10.333333333333334</v>
       </c>
       <c r="E12" t="e">
         <v>#DIV/0!</v>
@@ -895,8 +895,8 @@
       <c r="C13" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D13" t="e">
-        <v>#DIV/0!</v>
+      <c r="D13">
+        <v>17.333333333333332</v>
       </c>
       <c r="E13" t="e">
         <v>#DIV/0!</v>
@@ -930,8 +930,8 @@
       <c r="C14" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D14" t="e">
-        <v>#DIV/0!</v>
+      <c r="D14">
+        <v>15.666666666666666</v>
       </c>
       <c r="E14" t="e">
         <v>#DIV/0!</v>
@@ -965,8 +965,8 @@
       <c r="C15" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D15" t="e">
-        <v>#DIV/0!</v>
+      <c r="D15">
+        <v>15.666666666666666</v>
       </c>
       <c r="E15" t="e">
         <v>#DIV/0!</v>
@@ -1000,8 +1000,8 @@
       <c r="C16" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D16" t="e">
-        <v>#DIV/0!</v>
+      <c r="D16">
+        <v>11.666666666666666</v>
       </c>
       <c r="E16" t="e">
         <v>#DIV/0!</v>
@@ -1035,8 +1035,8 @@
       <c r="C17" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D17" t="e">
-        <v>#DIV/0!</v>
+      <c r="D17">
+        <v>18.666666666666668</v>
       </c>
       <c r="E17" t="e">
         <v>#DIV/0!</v>
@@ -1070,8 +1070,8 @@
       <c r="C18" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D18" t="e">
-        <v>#DIV/0!</v>
+      <c r="D18">
+        <v>15.666666666666666</v>
       </c>
       <c r="E18" t="e">
         <v>#DIV/0!</v>
@@ -1105,8 +1105,8 @@
       <c r="C19" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D19" t="e">
-        <v>#DIV/0!</v>
+      <c r="D19">
+        <v>15.666666666666666</v>
       </c>
       <c r="E19" t="e">
         <v>#DIV/0!</v>
@@ -1140,8 +1140,8 @@
       <c r="C20" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D20" t="e">
-        <v>#DIV/0!</v>
+      <c r="D20">
+        <v>11.666666666666666</v>
       </c>
       <c r="E20" t="e">
         <v>#DIV/0!</v>
@@ -1175,8 +1175,8 @@
       <c r="C21" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D21" t="e">
-        <v>#DIV/0!</v>
+      <c r="D21">
+        <v>18.666666666666668</v>
       </c>
       <c r="E21" t="e">
         <v>#DIV/0!</v>
@@ -1210,8 +1210,8 @@
       <c r="C22" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D22" t="e">
-        <v>#DIV/0!</v>
+      <c r="D22">
+        <v>29</v>
       </c>
       <c r="E22" t="e">
         <v>#DIV/0!</v>
@@ -1245,8 +1245,8 @@
       <c r="C23" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D23" t="e">
-        <v>#DIV/0!</v>
+      <c r="D23">
+        <v>29</v>
       </c>
       <c r="E23" t="e">
         <v>#DIV/0!</v>
@@ -1280,8 +1280,8 @@
       <c r="C24" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D24" t="e">
-        <v>#DIV/0!</v>
+      <c r="D24">
+        <v>25</v>
       </c>
       <c r="E24" t="e">
         <v>#DIV/0!</v>
@@ -1315,8 +1315,8 @@
       <c r="C25" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D25" t="e">
-        <v>#DIV/0!</v>
+      <c r="D25">
+        <v>32</v>
       </c>
       <c r="E25" t="e">
         <v>#DIV/0!</v>
@@ -1350,8 +1350,8 @@
       <c r="C26" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D26" t="e">
-        <v>#DIV/0!</v>
+      <c r="D26">
+        <v>9.6666666666666661</v>
       </c>
       <c r="E26" t="e">
         <v>#DIV/0!</v>
@@ -1385,8 +1385,8 @@
       <c r="C27" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D27" t="e">
-        <v>#DIV/0!</v>
+      <c r="D27">
+        <v>9.6666666666666661</v>
       </c>
       <c r="E27" t="e">
         <v>#DIV/0!</v>
@@ -1420,8 +1420,8 @@
       <c r="C28" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D28" t="e">
-        <v>#DIV/0!</v>
+      <c r="D28">
+        <v>5.666666666666667</v>
       </c>
       <c r="E28" t="e">
         <v>#DIV/0!</v>
@@ -1455,8 +1455,8 @@
       <c r="C29" t="str">
         <v>BTN-R08</v>
       </c>
-      <c r="D29" t="e">
-        <v>#DIV/0!</v>
+      <c r="D29">
+        <v>12.666666666666666</v>
       </c>
       <c r="E29" t="e">
         <v>#DIV/0!</v>
@@ -1490,8 +1490,8 @@
       <c r="C30" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D30" t="e">
-        <v>#DIV/0!</v>
+      <c r="D30">
+        <v>11.333333333333334</v>
       </c>
       <c r="E30" t="e">
         <v>#DIV/0!</v>
@@ -1525,8 +1525,8 @@
       <c r="C31" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D31" t="e">
-        <v>#DIV/0!</v>
+      <c r="D31">
+        <v>11.333333333333334</v>
       </c>
       <c r="E31" t="e">
         <v>#DIV/0!</v>
@@ -1560,8 +1560,8 @@
       <c r="C32" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D32" t="e">
-        <v>#DIV/0!</v>
+      <c r="D32">
+        <v>7.333333333333333</v>
       </c>
       <c r="E32" t="e">
         <v>#DIV/0!</v>
@@ -1595,8 +1595,8 @@
       <c r="C33" t="str">
         <v>BTN-R10</v>
       </c>
-      <c r="D33" t="e">
-        <v>#DIV/0!</v>
+      <c r="D33">
+        <v>14.333333333333334</v>
       </c>
       <c r="E33" t="e">
         <v>#DIV/0!</v>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306D8FF-F8ED-47A3-9539-42FE781259EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C11E22-075B-4AB3-8D68-B97E901AE338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,8 +513,8 @@
       <c r="D2">
         <v>12.333333333333334</v>
       </c>
-      <c r="E2" t="e">
-        <v>#DIV/0!</v>
+      <c r="E2">
+        <v>12.333333333333334</v>
       </c>
       <c r="F2" t="e">
         <v>#DIV/0!</v>
@@ -548,8 +548,8 @@
       <c r="D3">
         <v>12.333333333333334</v>
       </c>
-      <c r="E3" t="e">
-        <v>#DIV/0!</v>
+      <c r="E3">
+        <v>12.333333333333334</v>
       </c>
       <c r="F3" t="e">
         <v>#DIV/0!</v>
@@ -583,8 +583,8 @@
       <c r="D4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="E4" t="e">
-        <v>#DIV/0!</v>
+      <c r="E4">
+        <v>8.3333333333333339</v>
       </c>
       <c r="F4" t="e">
         <v>#DIV/0!</v>
@@ -618,8 +618,8 @@
       <c r="D5">
         <v>15.333333333333334</v>
       </c>
-      <c r="E5" t="e">
-        <v>#DIV/0!</v>
+      <c r="E5">
+        <v>15.333333333333334</v>
       </c>
       <c r="F5" t="e">
         <v>#DIV/0!</v>
@@ -653,8 +653,8 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" t="e">
-        <v>#DIV/0!</v>
+      <c r="E6">
+        <v>20</v>
       </c>
       <c r="F6" t="e">
         <v>#DIV/0!</v>
@@ -688,8 +688,8 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="e">
-        <v>#DIV/0!</v>
+      <c r="E7">
+        <v>20</v>
       </c>
       <c r="F7" t="e">
         <v>#DIV/0!</v>
@@ -723,8 +723,8 @@
       <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8" t="e">
-        <v>#DIV/0!</v>
+      <c r="E8">
+        <v>16</v>
       </c>
       <c r="F8" t="e">
         <v>#DIV/0!</v>
@@ -758,8 +758,8 @@
       <c r="D9">
         <v>23</v>
       </c>
-      <c r="E9" t="e">
-        <v>#DIV/0!</v>
+      <c r="E9">
+        <v>23</v>
       </c>
       <c r="F9" t="e">
         <v>#DIV/0!</v>
@@ -793,8 +793,8 @@
       <c r="D10">
         <v>14.333333333333334</v>
       </c>
-      <c r="E10" t="e">
-        <v>#DIV/0!</v>
+      <c r="E10">
+        <v>14.333333333333334</v>
       </c>
       <c r="F10" t="e">
         <v>#DIV/0!</v>
@@ -828,8 +828,8 @@
       <c r="D11">
         <v>14.333333333333334</v>
       </c>
-      <c r="E11" t="e">
-        <v>#DIV/0!</v>
+      <c r="E11">
+        <v>14.333333333333334</v>
       </c>
       <c r="F11" t="e">
         <v>#DIV/0!</v>
@@ -863,8 +863,8 @@
       <c r="D12">
         <v>10.333333333333334</v>
       </c>
-      <c r="E12" t="e">
-        <v>#DIV/0!</v>
+      <c r="E12">
+        <v>10.333333333333334</v>
       </c>
       <c r="F12" t="e">
         <v>#DIV/0!</v>
@@ -898,8 +898,8 @@
       <c r="D13">
         <v>17.333333333333332</v>
       </c>
-      <c r="E13" t="e">
-        <v>#DIV/0!</v>
+      <c r="E13">
+        <v>17.333333333333332</v>
       </c>
       <c r="F13" t="e">
         <v>#DIV/0!</v>
@@ -933,8 +933,8 @@
       <c r="D14">
         <v>15.666666666666666</v>
       </c>
-      <c r="E14" t="e">
-        <v>#DIV/0!</v>
+      <c r="E14">
+        <v>15.666666666666666</v>
       </c>
       <c r="F14" t="e">
         <v>#DIV/0!</v>
@@ -968,8 +968,8 @@
       <c r="D15">
         <v>15.666666666666666</v>
       </c>
-      <c r="E15" t="e">
-        <v>#DIV/0!</v>
+      <c r="E15">
+        <v>15.666666666666666</v>
       </c>
       <c r="F15" t="e">
         <v>#DIV/0!</v>
@@ -1003,8 +1003,8 @@
       <c r="D16">
         <v>11.666666666666666</v>
       </c>
-      <c r="E16" t="e">
-        <v>#DIV/0!</v>
+      <c r="E16">
+        <v>11.666666666666666</v>
       </c>
       <c r="F16" t="e">
         <v>#DIV/0!</v>
@@ -1038,8 +1038,8 @@
       <c r="D17">
         <v>18.666666666666668</v>
       </c>
-      <c r="E17" t="e">
-        <v>#DIV/0!</v>
+      <c r="E17">
+        <v>18.666666666666668</v>
       </c>
       <c r="F17" t="e">
         <v>#DIV/0!</v>
@@ -1073,8 +1073,8 @@
       <c r="D18">
         <v>15.666666666666666</v>
       </c>
-      <c r="E18" t="e">
-        <v>#DIV/0!</v>
+      <c r="E18">
+        <v>15.666666666666666</v>
       </c>
       <c r="F18" t="e">
         <v>#DIV/0!</v>
@@ -1108,8 +1108,8 @@
       <c r="D19">
         <v>15.666666666666666</v>
       </c>
-      <c r="E19" t="e">
-        <v>#DIV/0!</v>
+      <c r="E19">
+        <v>15.666666666666666</v>
       </c>
       <c r="F19" t="e">
         <v>#DIV/0!</v>
@@ -1143,8 +1143,8 @@
       <c r="D20">
         <v>11.666666666666666</v>
       </c>
-      <c r="E20" t="e">
-        <v>#DIV/0!</v>
+      <c r="E20">
+        <v>11.666666666666666</v>
       </c>
       <c r="F20" t="e">
         <v>#DIV/0!</v>
@@ -1178,8 +1178,8 @@
       <c r="D21">
         <v>18.666666666666668</v>
       </c>
-      <c r="E21" t="e">
-        <v>#DIV/0!</v>
+      <c r="E21">
+        <v>18.666666666666668</v>
       </c>
       <c r="F21" t="e">
         <v>#DIV/0!</v>
@@ -1213,8 +1213,8 @@
       <c r="D22">
         <v>29</v>
       </c>
-      <c r="E22" t="e">
-        <v>#DIV/0!</v>
+      <c r="E22">
+        <v>29</v>
       </c>
       <c r="F22" t="e">
         <v>#DIV/0!</v>
@@ -1248,8 +1248,8 @@
       <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23" t="e">
-        <v>#DIV/0!</v>
+      <c r="E23">
+        <v>29</v>
       </c>
       <c r="F23" t="e">
         <v>#DIV/0!</v>
@@ -1283,8 +1283,8 @@
       <c r="D24">
         <v>25</v>
       </c>
-      <c r="E24" t="e">
-        <v>#DIV/0!</v>
+      <c r="E24">
+        <v>25</v>
       </c>
       <c r="F24" t="e">
         <v>#DIV/0!</v>
@@ -1318,8 +1318,8 @@
       <c r="D25">
         <v>32</v>
       </c>
-      <c r="E25" t="e">
-        <v>#DIV/0!</v>
+      <c r="E25">
+        <v>32</v>
       </c>
       <c r="F25" t="e">
         <v>#DIV/0!</v>
@@ -1353,8 +1353,8 @@
       <c r="D26">
         <v>9.6666666666666661</v>
       </c>
-      <c r="E26" t="e">
-        <v>#DIV/0!</v>
+      <c r="E26">
+        <v>9.6666666666666661</v>
       </c>
       <c r="F26" t="e">
         <v>#DIV/0!</v>
@@ -1388,8 +1388,8 @@
       <c r="D27">
         <v>9.6666666666666661</v>
       </c>
-      <c r="E27" t="e">
-        <v>#DIV/0!</v>
+      <c r="E27">
+        <v>9.6666666666666661</v>
       </c>
       <c r="F27" t="e">
         <v>#DIV/0!</v>
@@ -1423,8 +1423,8 @@
       <c r="D28">
         <v>5.666666666666667</v>
       </c>
-      <c r="E28" t="e">
-        <v>#DIV/0!</v>
+      <c r="E28">
+        <v>5.666666666666667</v>
       </c>
       <c r="F28" t="e">
         <v>#DIV/0!</v>
@@ -1458,8 +1458,8 @@
       <c r="D29">
         <v>12.666666666666666</v>
       </c>
-      <c r="E29" t="e">
-        <v>#DIV/0!</v>
+      <c r="E29">
+        <v>12.666666666666666</v>
       </c>
       <c r="F29" t="e">
         <v>#DIV/0!</v>
@@ -1493,8 +1493,8 @@
       <c r="D30">
         <v>11.333333333333334</v>
       </c>
-      <c r="E30" t="e">
-        <v>#DIV/0!</v>
+      <c r="E30">
+        <v>11.333333333333334</v>
       </c>
       <c r="F30" t="e">
         <v>#DIV/0!</v>
@@ -1528,8 +1528,8 @@
       <c r="D31">
         <v>11.333333333333334</v>
       </c>
-      <c r="E31" t="e">
-        <v>#DIV/0!</v>
+      <c r="E31">
+        <v>11.333333333333334</v>
       </c>
       <c r="F31" t="e">
         <v>#DIV/0!</v>
@@ -1563,8 +1563,8 @@
       <c r="D32">
         <v>7.333333333333333</v>
       </c>
-      <c r="E32" t="e">
-        <v>#DIV/0!</v>
+      <c r="E32">
+        <v>7.333333333333333</v>
       </c>
       <c r="F32" t="e">
         <v>#DIV/0!</v>
@@ -1598,8 +1598,8 @@
       <c r="D33">
         <v>14.333333333333334</v>
       </c>
-      <c r="E33" t="e">
-        <v>#DIV/0!</v>
+      <c r="E33">
+        <v>14.333333333333334</v>
       </c>
       <c r="F33" t="e">
         <v>#DIV/0!</v>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C11E22-075B-4AB3-8D68-B97E901AE338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF7F12-9DFC-4980-94F3-6F31E3776F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,23 +516,23 @@
       <c r="E2">
         <v>12.333333333333334</v>
       </c>
-      <c r="F2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" t="e">
-        <v>#DIV/0!</v>
+      <c r="F2">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G2">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="H2">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="I2">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="J2">
+        <v>87.333333333333329</v>
+      </c>
+      <c r="K2">
+        <v>102.33333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -551,23 +551,23 @@
       <c r="E3">
         <v>12.333333333333334</v>
       </c>
-      <c r="F3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" t="e">
-        <v>#DIV/0!</v>
+      <c r="F3">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="G3">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="H3">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="I3">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="J3">
+        <v>87.333333333333329</v>
+      </c>
+      <c r="K3">
+        <v>102.33333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -586,23 +586,23 @@
       <c r="E4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="F4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#DIV/0!</v>
+      <c r="F4">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G4">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="H4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I4">
+        <v>68.333333333333329</v>
+      </c>
+      <c r="J4">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K4">
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -621,23 +621,23 @@
       <c r="E5">
         <v>15.333333333333334</v>
       </c>
-      <c r="F5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
-        <v>#DIV/0!</v>
+      <c r="F5">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="G5">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="H5">
+        <v>60.333333333333336</v>
+      </c>
+      <c r="I5">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="J5">
+        <v>90.333333333333329</v>
+      </c>
+      <c r="K5">
+        <v>105.33333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -656,23 +656,23 @@
       <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
-        <v>#DIV/0!</v>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="K6">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -691,23 +691,23 @@
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
-        <v>#DIV/0!</v>
+      <c r="F7">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>95</v>
+      </c>
+      <c r="K7">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -726,23 +726,23 @@
       <c r="E8">
         <v>16</v>
       </c>
-      <c r="F8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
-        <v>#DIV/0!</v>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>91</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -761,23 +761,23 @@
       <c r="E9">
         <v>23</v>
       </c>
-      <c r="F9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#DIV/0!</v>
+      <c r="F9">
+        <v>38</v>
+      </c>
+      <c r="G9">
+        <v>53</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>83</v>
+      </c>
+      <c r="J9">
+        <v>98</v>
+      </c>
+      <c r="K9">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -796,23 +796,23 @@
       <c r="E10">
         <v>14.333333333333334</v>
       </c>
-      <c r="F10" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" t="e">
-        <v>#DIV/0!</v>
+      <c r="F10">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="G10">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="H10">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="I10">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="J10">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="K10">
+        <v>104.33333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -831,23 +831,23 @@
       <c r="E11">
         <v>14.333333333333334</v>
       </c>
-      <c r="F11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" t="e">
-        <v>#DIV/0!</v>
+      <c r="F11">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="G11">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="H11">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="I11">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="J11">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="K11">
+        <v>104.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -866,23 +866,23 @@
       <c r="E12">
         <v>10.333333333333334</v>
       </c>
-      <c r="F12" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" t="e">
-        <v>#DIV/0!</v>
+      <c r="F12">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="G12">
+        <v>40.333333333333336</v>
+      </c>
+      <c r="H12">
+        <v>55.333333333333336</v>
+      </c>
+      <c r="I12">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="J12">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="K12">
+        <v>100.33333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -901,23 +901,23 @@
       <c r="E13">
         <v>17.333333333333332</v>
       </c>
-      <c r="F13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" t="e">
-        <v>#DIV/0!</v>
+      <c r="F13">
+        <v>32.333333333333336</v>
+      </c>
+      <c r="G13">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="H13">
+        <v>62.333333333333336</v>
+      </c>
+      <c r="I13">
+        <v>77.333333333333329</v>
+      </c>
+      <c r="J13">
+        <v>92.333333333333329</v>
+      </c>
+      <c r="K13">
+        <v>107.33333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -936,23 +936,23 @@
       <c r="E14">
         <v>15.666666666666666</v>
       </c>
-      <c r="F14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
-        <v>#DIV/0!</v>
+      <c r="F14">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="G14">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="H14">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="I14">
+        <v>75.666666666666671</v>
+      </c>
+      <c r="J14">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="K14">
+        <v>105.66666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -971,23 +971,23 @@
       <c r="E15">
         <v>15.666666666666666</v>
       </c>
-      <c r="F15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" t="e">
-        <v>#DIV/0!</v>
+      <c r="F15">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="G15">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="H15">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="I15">
+        <v>75.666666666666671</v>
+      </c>
+      <c r="J15">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="K15">
+        <v>105.66666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1006,23 +1006,23 @@
       <c r="E16">
         <v>11.666666666666666</v>
       </c>
-      <c r="F16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" t="e">
-        <v>#DIV/0!</v>
+      <c r="F16">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G16">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="H16">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I16">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="J16">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K16">
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1041,23 +1041,23 @@
       <c r="E17">
         <v>18.666666666666668</v>
       </c>
-      <c r="F17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" t="e">
-        <v>#DIV/0!</v>
+      <c r="F17">
+        <v>33.666666666666664</v>
+      </c>
+      <c r="G17">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="H17">
+        <v>63.666666666666664</v>
+      </c>
+      <c r="I17">
+        <v>78.666666666666671</v>
+      </c>
+      <c r="J17">
+        <v>93.666666666666671</v>
+      </c>
+      <c r="K17">
+        <v>108.66666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1076,23 +1076,23 @@
       <c r="E18">
         <v>15.666666666666666</v>
       </c>
-      <c r="F18" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" t="e">
-        <v>#DIV/0!</v>
+      <c r="F18">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="G18">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="H18">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="I18">
+        <v>75.666666666666671</v>
+      </c>
+      <c r="J18">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="K18">
+        <v>105.66666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1111,23 +1111,23 @@
       <c r="E19">
         <v>15.666666666666666</v>
       </c>
-      <c r="F19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" t="e">
-        <v>#DIV/0!</v>
+      <c r="F19">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="G19">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="H19">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="I19">
+        <v>75.666666666666671</v>
+      </c>
+      <c r="J19">
+        <v>90.666666666666671</v>
+      </c>
+      <c r="K19">
+        <v>105.66666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1146,23 +1146,23 @@
       <c r="E20">
         <v>11.666666666666666</v>
       </c>
-      <c r="F20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" t="e">
-        <v>#DIV/0!</v>
+      <c r="F20">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G20">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="H20">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="I20">
+        <v>71.666666666666671</v>
+      </c>
+      <c r="J20">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K20">
+        <v>101.66666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1181,23 +1181,23 @@
       <c r="E21">
         <v>18.666666666666668</v>
       </c>
-      <c r="F21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="e">
-        <v>#DIV/0!</v>
+      <c r="F21">
+        <v>33.666666666666664</v>
+      </c>
+      <c r="G21">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="H21">
+        <v>63.666666666666664</v>
+      </c>
+      <c r="I21">
+        <v>78.666666666666671</v>
+      </c>
+      <c r="J21">
+        <v>93.666666666666671</v>
+      </c>
+      <c r="K21">
+        <v>108.66666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1216,23 +1216,23 @@
       <c r="E22">
         <v>29</v>
       </c>
-      <c r="F22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <v>#DIV/0!</v>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <v>74</v>
+      </c>
+      <c r="I22">
+        <v>89</v>
+      </c>
+      <c r="J22">
+        <v>104</v>
+      </c>
+      <c r="K22">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1251,23 +1251,23 @@
       <c r="E23">
         <v>29</v>
       </c>
-      <c r="F23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="e">
-        <v>#DIV/0!</v>
+      <c r="F23">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>59</v>
+      </c>
+      <c r="H23">
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <v>89</v>
+      </c>
+      <c r="J23">
+        <v>104</v>
+      </c>
+      <c r="K23">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1286,23 +1286,23 @@
       <c r="E24">
         <v>25</v>
       </c>
-      <c r="F24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" t="e">
-        <v>#DIV/0!</v>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1321,23 +1321,23 @@
       <c r="E25">
         <v>32</v>
       </c>
-      <c r="F25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" t="e">
-        <v>#DIV/0!</v>
+      <c r="F25">
+        <v>47</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="H25">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>92</v>
+      </c>
+      <c r="J25">
+        <v>107</v>
+      </c>
+      <c r="K25">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1356,23 +1356,23 @@
       <c r="E26">
         <v>9.6666666666666661</v>
       </c>
-      <c r="F26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" t="e">
-        <v>#DIV/0!</v>
+      <c r="F26">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="G26">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="H26">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="I26">
+        <v>69.666666666666671</v>
+      </c>
+      <c r="J26">
+        <v>84.666666666666671</v>
+      </c>
+      <c r="K26">
+        <v>99.666666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1391,23 +1391,23 @@
       <c r="E27">
         <v>9.6666666666666661</v>
       </c>
-      <c r="F27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" t="e">
-        <v>#DIV/0!</v>
+      <c r="F27">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="G27">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="H27">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="I27">
+        <v>69.666666666666671</v>
+      </c>
+      <c r="J27">
+        <v>84.666666666666671</v>
+      </c>
+      <c r="K27">
+        <v>99.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1426,23 +1426,23 @@
       <c r="E28">
         <v>5.666666666666667</v>
       </c>
-      <c r="F28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#DIV/0!</v>
+      <c r="F28">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="G28">
+        <v>35.666666666666664</v>
+      </c>
+      <c r="H28">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="I28">
+        <v>65.666666666666671</v>
+      </c>
+      <c r="J28">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="K28">
+        <v>95.666666666666671</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1461,23 +1461,23 @@
       <c r="E29">
         <v>12.666666666666666</v>
       </c>
-      <c r="F29" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" t="e">
-        <v>#DIV/0!</v>
+      <c r="F29">
+        <v>27.666666666666668</v>
+      </c>
+      <c r="G29">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="H29">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="I29">
+        <v>72.666666666666671</v>
+      </c>
+      <c r="J29">
+        <v>87.666666666666671</v>
+      </c>
+      <c r="K29">
+        <v>102.66666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1496,23 +1496,23 @@
       <c r="E30">
         <v>11.333333333333334</v>
       </c>
-      <c r="F30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="e">
-        <v>#DIV/0!</v>
+      <c r="F30">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="G30">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="H30">
+        <v>56.333333333333336</v>
+      </c>
+      <c r="I30">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="J30">
+        <v>86.333333333333329</v>
+      </c>
+      <c r="K30">
+        <v>101.33333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1531,23 +1531,23 @@
       <c r="E31">
         <v>11.333333333333334</v>
       </c>
-      <c r="F31" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" t="e">
-        <v>#DIV/0!</v>
+      <c r="F31">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="G31">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="H31">
+        <v>56.333333333333336</v>
+      </c>
+      <c r="I31">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="J31">
+        <v>86.333333333333329</v>
+      </c>
+      <c r="K31">
+        <v>101.33333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1566,23 +1566,23 @@
       <c r="E32">
         <v>7.333333333333333</v>
       </c>
-      <c r="F32" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" t="e">
-        <v>#DIV/0!</v>
+      <c r="F32">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="G32">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="H32">
+        <v>52.333333333333336</v>
+      </c>
+      <c r="I32">
+        <v>67.333333333333329</v>
+      </c>
+      <c r="J32">
+        <v>82.333333333333329</v>
+      </c>
+      <c r="K32">
+        <v>97.333333333333329</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1601,23 +1601,23 @@
       <c r="E33">
         <v>14.333333333333334</v>
       </c>
-      <c r="F33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" t="e">
-        <v>#DIV/0!</v>
+      <c r="F33">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="G33">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="H33">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="I33">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="J33">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="K33">
+        <v>104.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF7F12-9DFC-4980-94F3-6F31E3776F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29E2EFB-320D-4413-A48F-2BBFB4BB1D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,28 +511,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D2">
-        <v>12.333333333333334</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="E2">
-        <v>12.333333333333334</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="F2">
-        <v>27.333333333333332</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="G2">
-        <v>42.333333333333336</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="H2">
-        <v>57.333333333333336</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="I2">
-        <v>72.333333333333329</v>
+        <v>68.333333333333329</v>
       </c>
       <c r="J2">
-        <v>87.333333333333329</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="K2">
-        <v>102.33333333333333</v>
+        <v>98.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -546,28 +546,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D3">
-        <v>12.333333333333334</v>
+        <v>8.7133333333333329</v>
       </c>
       <c r="E3">
-        <v>12.333333333333334</v>
+        <v>8.7133333333333329</v>
       </c>
       <c r="F3">
-        <v>27.333333333333332</v>
+        <v>23.713333333333335</v>
       </c>
       <c r="G3">
-        <v>42.333333333333336</v>
+        <v>38.713333333333331</v>
       </c>
       <c r="H3">
-        <v>57.333333333333336</v>
+        <v>53.713333333333331</v>
       </c>
       <c r="I3">
-        <v>72.333333333333329</v>
+        <v>68.713333333333324</v>
       </c>
       <c r="J3">
-        <v>87.333333333333329</v>
+        <v>83.713333333333324</v>
       </c>
       <c r="K3">
-        <v>102.33333333333333</v>
+        <v>98.713333333333324</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -581,28 +581,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D4">
-        <v>8.3333333333333339</v>
+        <v>9.2033333333333349</v>
       </c>
       <c r="E4">
-        <v>8.3333333333333339</v>
+        <v>9.2033333333333349</v>
       </c>
       <c r="F4">
-        <v>23.333333333333332</v>
+        <v>24.203333333333337</v>
       </c>
       <c r="G4">
-        <v>38.333333333333336</v>
+        <v>39.20333333333334</v>
       </c>
       <c r="H4">
-        <v>53.333333333333336</v>
+        <v>54.20333333333334</v>
       </c>
       <c r="I4">
-        <v>68.333333333333329</v>
+        <v>69.203333333333333</v>
       </c>
       <c r="J4">
-        <v>83.333333333333329</v>
+        <v>84.203333333333333</v>
       </c>
       <c r="K4">
-        <v>98.333333333333329</v>
+        <v>99.203333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -616,28 +616,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D5">
-        <v>15.333333333333334</v>
+        <v>8.9233333333333338</v>
       </c>
       <c r="E5">
-        <v>15.333333333333334</v>
+        <v>8.9233333333333338</v>
       </c>
       <c r="F5">
-        <v>30.333333333333332</v>
+        <v>23.923333333333336</v>
       </c>
       <c r="G5">
-        <v>45.333333333333336</v>
+        <v>38.923333333333339</v>
       </c>
       <c r="H5">
-        <v>60.333333333333336</v>
+        <v>53.923333333333339</v>
       </c>
       <c r="I5">
-        <v>75.333333333333329</v>
+        <v>68.923333333333332</v>
       </c>
       <c r="J5">
-        <v>90.333333333333329</v>
+        <v>83.923333333333332</v>
       </c>
       <c r="K5">
-        <v>105.33333333333333</v>
+        <v>98.923333333333332</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -651,28 +651,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>7.9666666666666677</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>7.9666666666666677</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>22.966666666666669</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>37.966666666666661</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>52.966666666666661</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>67.966666666666654</v>
       </c>
       <c r="J6">
-        <v>95</v>
+        <v>82.966666666666654</v>
       </c>
       <c r="K6">
-        <v>110</v>
+        <v>97.966666666666654</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -686,28 +686,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>8.3466666666666658</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>8.3466666666666658</v>
       </c>
       <c r="F7">
-        <v>35</v>
+        <v>23.346666666666664</v>
       </c>
       <c r="G7">
-        <v>50</v>
+        <v>38.346666666666671</v>
       </c>
       <c r="H7">
-        <v>65</v>
+        <v>53.346666666666671</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>68.346666666666678</v>
       </c>
       <c r="J7">
-        <v>95</v>
+        <v>83.346666666666678</v>
       </c>
       <c r="K7">
-        <v>110</v>
+        <v>98.346666666666678</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -721,28 +721,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>8.8366666666666678</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>8.8366666666666678</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>23.83666666666667</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>38.836666666666666</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>53.836666666666666</v>
       </c>
       <c r="I8">
-        <v>76</v>
+        <v>68.836666666666659</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>83.836666666666659</v>
       </c>
       <c r="K8">
-        <v>106</v>
+        <v>98.836666666666659</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -756,28 +756,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>8.5566666666666666</v>
       </c>
       <c r="E9">
-        <v>23</v>
+        <v>8.5566666666666666</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>23.556666666666668</v>
       </c>
       <c r="G9">
-        <v>53</v>
+        <v>38.556666666666665</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>53.556666666666672</v>
       </c>
       <c r="I9">
-        <v>83</v>
+        <v>68.556666666666672</v>
       </c>
       <c r="J9">
-        <v>98</v>
+        <v>83.556666666666672</v>
       </c>
       <c r="K9">
-        <v>113</v>
+        <v>98.556666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -791,28 +791,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D10">
-        <v>14.333333333333334</v>
+        <v>7.4000000000000012</v>
       </c>
       <c r="E10">
-        <v>14.333333333333334</v>
+        <v>7.4000000000000012</v>
       </c>
       <c r="F10">
-        <v>29.333333333333332</v>
+        <v>22.399999999999995</v>
       </c>
       <c r="G10">
-        <v>44.333333333333336</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="H10">
-        <v>59.333333333333336</v>
+        <v>52.400000000000006</v>
       </c>
       <c r="I10">
-        <v>74.333333333333329</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="J10">
-        <v>89.333333333333329</v>
+        <v>82.4</v>
       </c>
       <c r="K10">
-        <v>104.33333333333333</v>
+        <v>97.40000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -826,28 +826,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D11">
-        <v>14.333333333333334</v>
+        <v>7.77</v>
       </c>
       <c r="E11">
-        <v>14.333333333333334</v>
+        <v>7.77</v>
       </c>
       <c r="F11">
-        <v>29.333333333333332</v>
+        <v>22.77</v>
       </c>
       <c r="G11">
-        <v>44.333333333333336</v>
+        <v>37.769999999999996</v>
       </c>
       <c r="H11">
-        <v>59.333333333333336</v>
+        <v>52.77</v>
       </c>
       <c r="I11">
-        <v>74.333333333333329</v>
+        <v>67.77</v>
       </c>
       <c r="J11">
-        <v>89.333333333333329</v>
+        <v>82.77</v>
       </c>
       <c r="K11">
-        <v>104.33333333333333</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -861,28 +861,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D12">
-        <v>10.333333333333334</v>
+        <v>8.26</v>
       </c>
       <c r="E12">
-        <v>10.333333333333334</v>
+        <v>8.26</v>
       </c>
       <c r="F12">
-        <v>25.333333333333332</v>
+        <v>23.26</v>
       </c>
       <c r="G12">
-        <v>40.333333333333336</v>
+        <v>38.26</v>
       </c>
       <c r="H12">
-        <v>55.333333333333336</v>
+        <v>53.26</v>
       </c>
       <c r="I12">
-        <v>70.333333333333329</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="J12">
-        <v>85.333333333333329</v>
+        <v>83.26</v>
       </c>
       <c r="K12">
-        <v>100.33333333333333</v>
+        <v>98.259999999999991</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -896,28 +896,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D13">
-        <v>17.333333333333332</v>
+        <v>7.98</v>
       </c>
       <c r="E13">
-        <v>17.333333333333332</v>
+        <v>7.98</v>
       </c>
       <c r="F13">
-        <v>32.333333333333336</v>
+        <v>22.98</v>
       </c>
       <c r="G13">
-        <v>47.333333333333336</v>
+        <v>37.980000000000004</v>
       </c>
       <c r="H13">
-        <v>62.333333333333336</v>
+        <v>52.98</v>
       </c>
       <c r="I13">
-        <v>77.333333333333329</v>
+        <v>67.98</v>
       </c>
       <c r="J13">
-        <v>92.333333333333329</v>
+        <v>82.98</v>
       </c>
       <c r="K13">
-        <v>107.33333333333333</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -931,28 +931,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D14">
-        <v>15.666666666666666</v>
+        <v>7.7</v>
       </c>
       <c r="E14">
-        <v>15.666666666666666</v>
+        <v>7.7</v>
       </c>
       <c r="F14">
-        <v>30.666666666666668</v>
+        <v>22.7</v>
       </c>
       <c r="G14">
-        <v>45.666666666666664</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="H14">
-        <v>60.666666666666664</v>
+        <v>52.699999999999996</v>
       </c>
       <c r="I14">
-        <v>75.666666666666671</v>
+        <v>67.7</v>
       </c>
       <c r="J14">
-        <v>90.666666666666671</v>
+        <v>82.7</v>
       </c>
       <c r="K14">
-        <v>105.66666666666667</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -966,28 +966,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D15">
-        <v>15.666666666666666</v>
+        <v>8.07</v>
       </c>
       <c r="E15">
-        <v>15.666666666666666</v>
+        <v>8.07</v>
       </c>
       <c r="F15">
-        <v>30.666666666666668</v>
+        <v>23.069999999999997</v>
       </c>
       <c r="G15">
-        <v>45.666666666666664</v>
+        <v>38.07</v>
       </c>
       <c r="H15">
-        <v>60.666666666666664</v>
+        <v>53.069999999999993</v>
       </c>
       <c r="I15">
-        <v>75.666666666666671</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="J15">
-        <v>90.666666666666671</v>
+        <v>83.07</v>
       </c>
       <c r="K15">
-        <v>105.66666666666667</v>
+        <v>98.07</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1001,28 +1001,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D16">
-        <v>11.666666666666666</v>
+        <v>8.56</v>
       </c>
       <c r="E16">
-        <v>11.666666666666666</v>
+        <v>8.56</v>
       </c>
       <c r="F16">
-        <v>26.666666666666668</v>
+        <v>23.560000000000002</v>
       </c>
       <c r="G16">
-        <v>41.666666666666664</v>
+        <v>38.56</v>
       </c>
       <c r="H16">
-        <v>56.666666666666664</v>
+        <v>53.56</v>
       </c>
       <c r="I16">
-        <v>71.666666666666671</v>
+        <v>68.56</v>
       </c>
       <c r="J16">
-        <v>86.666666666666671</v>
+        <v>83.56</v>
       </c>
       <c r="K16">
-        <v>101.66666666666667</v>
+        <v>98.56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1036,28 +1036,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D17">
-        <v>18.666666666666668</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E17">
-        <v>18.666666666666668</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F17">
-        <v>33.666666666666664</v>
+        <v>23.28</v>
       </c>
       <c r="G17">
-        <v>48.666666666666664</v>
+        <v>38.28</v>
       </c>
       <c r="H17">
-        <v>63.666666666666664</v>
+        <v>53.28</v>
       </c>
       <c r="I17">
-        <v>78.666666666666671</v>
+        <v>68.280000000000015</v>
       </c>
       <c r="J17">
-        <v>93.666666666666671</v>
+        <v>83.280000000000015</v>
       </c>
       <c r="K17">
-        <v>108.66666666666667</v>
+        <v>98.280000000000015</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1071,28 +1071,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D18">
-        <v>15.666666666666666</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="E18">
-        <v>15.666666666666666</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="F18">
-        <v>30.666666666666668</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="G18">
-        <v>45.666666666666664</v>
+        <v>35.4</v>
       </c>
       <c r="H18">
-        <v>60.666666666666664</v>
+        <v>50.4</v>
       </c>
       <c r="I18">
-        <v>75.666666666666671</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="J18">
-        <v>90.666666666666671</v>
+        <v>80.399999999999991</v>
       </c>
       <c r="K18">
-        <v>105.66666666666667</v>
+        <v>95.399999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1106,28 +1106,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D19">
-        <v>15.666666666666666</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="E19">
-        <v>15.666666666666666</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="F19">
-        <v>30.666666666666668</v>
+        <v>22.02</v>
       </c>
       <c r="G19">
-        <v>45.666666666666664</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="H19">
-        <v>60.666666666666664</v>
+        <v>52.02</v>
       </c>
       <c r="I19">
-        <v>75.666666666666671</v>
+        <v>67.02</v>
       </c>
       <c r="J19">
-        <v>90.666666666666671</v>
+        <v>82.02</v>
       </c>
       <c r="K19">
-        <v>105.66666666666667</v>
+        <v>97.02</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1141,28 +1141,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D20">
-        <v>11.666666666666666</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="E20">
-        <v>11.666666666666666</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F20">
-        <v>26.666666666666668</v>
+        <v>24.709999999999997</v>
       </c>
       <c r="G20">
-        <v>41.666666666666664</v>
+        <v>39.71</v>
       </c>
       <c r="H20">
-        <v>56.666666666666664</v>
+        <v>54.71</v>
       </c>
       <c r="I20">
-        <v>71.666666666666671</v>
+        <v>69.709999999999994</v>
       </c>
       <c r="J20">
-        <v>86.666666666666671</v>
+        <v>84.71</v>
       </c>
       <c r="K20">
-        <v>101.66666666666667</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1176,28 +1176,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D21">
-        <v>18.666666666666668</v>
+        <v>9.4300000000000015</v>
       </c>
       <c r="E21">
-        <v>18.666666666666668</v>
+        <v>9.4300000000000015</v>
       </c>
       <c r="F21">
-        <v>33.666666666666664</v>
+        <v>24.429999999999996</v>
       </c>
       <c r="G21">
-        <v>48.666666666666664</v>
+        <v>39.43</v>
       </c>
       <c r="H21">
-        <v>63.666666666666664</v>
+        <v>54.43</v>
       </c>
       <c r="I21">
-        <v>78.666666666666671</v>
+        <v>69.429999999999993</v>
       </c>
       <c r="J21">
-        <v>93.666666666666671</v>
+        <v>84.429999999999993</v>
       </c>
       <c r="K21">
-        <v>108.66666666666667</v>
+        <v>99.429999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1211,28 +1211,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>20.74</v>
       </c>
       <c r="G22">
-        <v>59</v>
+        <v>35.74</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>50.74</v>
       </c>
       <c r="I22">
-        <v>89</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="J22">
-        <v>104</v>
+        <v>80.739999999999995</v>
       </c>
       <c r="K22">
-        <v>119</v>
+        <v>95.740000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1246,28 +1246,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="F23">
-        <v>44</v>
+        <v>22.36</v>
       </c>
       <c r="G23">
-        <v>59</v>
+        <v>37.360000000000007</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>52.360000000000007</v>
       </c>
       <c r="I23">
-        <v>89</v>
+        <v>67.36</v>
       </c>
       <c r="J23">
-        <v>104</v>
+        <v>82.36</v>
       </c>
       <c r="K23">
-        <v>119</v>
+        <v>97.360000000000014</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1281,28 +1281,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>10.049999999999999</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>10.049999999999999</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>25.05</v>
       </c>
       <c r="G24">
-        <v>55</v>
+        <v>40.050000000000004</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>55.050000000000004</v>
       </c>
       <c r="I24">
-        <v>85</v>
+        <v>70.05</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>85.05</v>
       </c>
       <c r="K24">
-        <v>115</v>
+        <v>100.05</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1316,28 +1316,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>9.7700000000000014</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>9.7700000000000014</v>
       </c>
       <c r="F25">
-        <v>47</v>
+        <v>24.77</v>
       </c>
       <c r="G25">
-        <v>62</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>54.77</v>
       </c>
       <c r="I25">
-        <v>92</v>
+        <v>69.77</v>
       </c>
       <c r="J25">
-        <v>107</v>
+        <v>84.77</v>
       </c>
       <c r="K25">
-        <v>122</v>
+        <v>99.77</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1351,28 +1351,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D26">
-        <v>9.6666666666666661</v>
+        <v>6.9666666666666659</v>
       </c>
       <c r="E26">
-        <v>9.6666666666666661</v>
+        <v>6.9666666666666659</v>
       </c>
       <c r="F26">
-        <v>24.666666666666668</v>
+        <v>21.966666666666669</v>
       </c>
       <c r="G26">
-        <v>39.666666666666664</v>
+        <v>36.966666666666661</v>
       </c>
       <c r="H26">
-        <v>54.666666666666664</v>
+        <v>51.966666666666661</v>
       </c>
       <c r="I26">
-        <v>69.666666666666671</v>
+        <v>66.966666666666654</v>
       </c>
       <c r="J26">
-        <v>84.666666666666671</v>
+        <v>81.966666666666654</v>
       </c>
       <c r="K26">
-        <v>99.666666666666671</v>
+        <v>96.966666666666654</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1386,28 +1386,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D27">
-        <v>9.6666666666666661</v>
+        <v>7.456666666666667</v>
       </c>
       <c r="E27">
-        <v>9.6666666666666661</v>
+        <v>7.456666666666667</v>
       </c>
       <c r="F27">
-        <v>24.666666666666668</v>
+        <v>22.456666666666667</v>
       </c>
       <c r="G27">
-        <v>39.666666666666664</v>
+        <v>37.456666666666671</v>
       </c>
       <c r="H27">
-        <v>54.666666666666664</v>
+        <v>52.456666666666671</v>
       </c>
       <c r="I27">
-        <v>69.666666666666671</v>
+        <v>67.456666666666663</v>
       </c>
       <c r="J27">
-        <v>84.666666666666671</v>
+        <v>82.456666666666663</v>
       </c>
       <c r="K27">
-        <v>99.666666666666671</v>
+        <v>97.456666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1421,28 +1421,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D28">
-        <v>5.666666666666667</v>
+        <v>7.9466666666666681</v>
       </c>
       <c r="E28">
-        <v>5.666666666666667</v>
+        <v>7.9466666666666681</v>
       </c>
       <c r="F28">
-        <v>20.666666666666668</v>
+        <v>22.946666666666669</v>
       </c>
       <c r="G28">
-        <v>35.666666666666664</v>
+        <v>37.946666666666665</v>
       </c>
       <c r="H28">
-        <v>50.666666666666664</v>
+        <v>52.946666666666665</v>
       </c>
       <c r="I28">
-        <v>65.666666666666671</v>
+        <v>67.946666666666673</v>
       </c>
       <c r="J28">
-        <v>86.666666666666671</v>
+        <v>84.71</v>
       </c>
       <c r="K28">
-        <v>95.666666666666671</v>
+        <v>97.946666666666673</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1456,28 +1456,28 @@
         <v>BTN-R08</v>
       </c>
       <c r="D29">
-        <v>12.666666666666666</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E29">
-        <v>12.666666666666666</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="F29">
-        <v>27.666666666666668</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="G29">
-        <v>42.666666666666664</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="H29">
-        <v>57.666666666666664</v>
+        <v>52.666666666666664</v>
       </c>
       <c r="I29">
-        <v>72.666666666666671</v>
+        <v>67.666666666666671</v>
       </c>
       <c r="J29">
-        <v>87.666666666666671</v>
+        <v>82.666666666666671</v>
       </c>
       <c r="K29">
-        <v>102.66666666666667</v>
+        <v>97.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1491,28 +1491,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D30">
-        <v>11.333333333333334</v>
+        <v>7.4666666666666659</v>
       </c>
       <c r="E30">
-        <v>11.333333333333334</v>
+        <v>7.4666666666666659</v>
       </c>
       <c r="F30">
-        <v>26.333333333333332</v>
+        <v>22.466666666666669</v>
       </c>
       <c r="G30">
-        <v>41.333333333333336</v>
+        <v>37.466666666666669</v>
       </c>
       <c r="H30">
-        <v>56.333333333333336</v>
+        <v>52.466666666666669</v>
       </c>
       <c r="I30">
-        <v>71.333333333333329</v>
+        <v>67.466666666666669</v>
       </c>
       <c r="J30">
-        <v>86.333333333333329</v>
+        <v>82.466666666666669</v>
       </c>
       <c r="K30">
-        <v>101.33333333333333</v>
+        <v>97.466666666666654</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1526,28 +1526,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D31">
-        <v>11.333333333333334</v>
+        <v>7.956666666666667</v>
       </c>
       <c r="E31">
-        <v>11.333333333333334</v>
+        <v>7.956666666666667</v>
       </c>
       <c r="F31">
-        <v>26.333333333333332</v>
+        <v>22.956666666666667</v>
       </c>
       <c r="G31">
-        <v>41.333333333333336</v>
+        <v>37.956666666666671</v>
       </c>
       <c r="H31">
-        <v>56.333333333333336</v>
+        <v>52.956666666666671</v>
       </c>
       <c r="I31">
-        <v>71.333333333333329</v>
+        <v>67.956666666666663</v>
       </c>
       <c r="J31">
-        <v>86.333333333333329</v>
+        <v>82.956666666666663</v>
       </c>
       <c r="K31">
-        <v>101.33333333333333</v>
+        <v>97.956666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1561,28 +1561,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D32">
-        <v>7.333333333333333</v>
+        <v>8.4466666666666672</v>
       </c>
       <c r="E32">
-        <v>7.333333333333333</v>
+        <v>8.4466666666666672</v>
       </c>
       <c r="F32">
-        <v>22.333333333333332</v>
+        <v>23.446666666666669</v>
       </c>
       <c r="G32">
-        <v>37.333333333333336</v>
+        <v>38.446666666666673</v>
       </c>
       <c r="H32">
-        <v>52.333333333333336</v>
+        <v>53.44666666666668</v>
       </c>
       <c r="I32">
-        <v>67.333333333333329</v>
+        <v>68.446666666666673</v>
       </c>
       <c r="J32">
-        <v>82.333333333333329</v>
+        <v>83.446666666666673</v>
       </c>
       <c r="K32">
-        <v>97.333333333333329</v>
+        <v>98.446666666666673</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1596,28 +1596,28 @@
         <v>BTN-R10</v>
       </c>
       <c r="D33">
-        <v>14.333333333333334</v>
+        <v>8.1666666666666696</v>
       </c>
       <c r="E33">
-        <v>14.333333333333334</v>
+        <v>8.1666666666666696</v>
       </c>
       <c r="F33">
-        <v>29.333333333333332</v>
+        <v>23.166666666666668</v>
       </c>
       <c r="G33">
-        <v>44.333333333333336</v>
+        <v>38.166666666666671</v>
       </c>
       <c r="H33">
-        <v>59.333333333333336</v>
+        <v>53.166666666666664</v>
       </c>
       <c r="I33">
-        <v>74.333333333333329</v>
+        <v>68.166666666666671</v>
       </c>
       <c r="J33">
-        <v>89.333333333333329</v>
+        <v>83.166666666666671</v>
       </c>
       <c r="K33">
-        <v>104.33333333333333</v>
+        <v>98.166666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29E2EFB-320D-4413-A48F-2BBFB4BB1D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185C27F-4281-4EEB-A0B2-A9D41E882894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6185C27F-4281-4EEB-A0B2-A9D41E882894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E812AD1-7527-46FA-A60D-A6506E4B7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E812AD1-7527-46FA-A60D-A6506E4B7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712478E-121D-4A11-B6F3-8EF0F41F1C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,8 +140,11 @@
       <sheetName val="Media Optimization"/>
       <sheetName val="Exp_2"/>
       <sheetName val="Exp_2_mean"/>
-      <sheetName val="Exp_3"/>
-      <sheetName val="Exp_3_mean"/>
+      <sheetName val="Exp_3_N"/>
+      <sheetName val="Exp_3_N_mean"/>
+      <sheetName val="Exp_3_P"/>
+      <sheetName val="Exp_3_P_mean"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -155,6 +158,9 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -448,7 +454,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,19 +526,19 @@
         <v>23.333333333333332</v>
       </c>
       <c r="G2">
-        <v>38.333333333333336</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="H2">
-        <v>53.333333333333336</v>
+        <v>43.4</v>
       </c>
       <c r="I2">
-        <v>68.333333333333329</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="J2">
-        <v>83.333333333333329</v>
+        <v>7.0401809523809519E-3</v>
       </c>
       <c r="K2">
-        <v>98.333333333333329</v>
+        <v>0.79882045345475683</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -555,19 +561,19 @@
         <v>23.713333333333335</v>
       </c>
       <c r="G3">
-        <v>38.713333333333331</v>
+        <v>28.070000000000004</v>
       </c>
       <c r="H3">
-        <v>53.713333333333331</v>
+        <v>43.07</v>
       </c>
       <c r="I3">
-        <v>68.713333333333324</v>
+        <v>0.68483333333333329</v>
       </c>
       <c r="J3">
-        <v>83.713333333333324</v>
+        <v>5.4126666666666663E-2</v>
       </c>
       <c r="K3">
-        <v>98.713333333333324</v>
+        <v>0.69532359618910922</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -590,19 +596,19 @@
         <v>24.203333333333337</v>
       </c>
       <c r="G4">
-        <v>39.20333333333334</v>
+        <v>29.570000000000004</v>
       </c>
       <c r="H4">
-        <v>54.20333333333334</v>
+        <v>44.57</v>
       </c>
       <c r="I4">
-        <v>69.203333333333333</v>
+        <v>1.2656666666666665</v>
       </c>
       <c r="J4">
-        <v>84.203333333333333</v>
+        <v>6.2829428571428578E-2</v>
       </c>
       <c r="K4">
-        <v>99.203333333333333</v>
+        <v>0.68771371998795383</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -625,19 +631,19 @@
         <v>23.923333333333336</v>
       </c>
       <c r="G5">
-        <v>38.923333333333339</v>
+        <v>29.72</v>
       </c>
       <c r="H5">
-        <v>53.923333333333339</v>
+        <v>44.720000000000006</v>
       </c>
       <c r="I5">
-        <v>68.923333333333332</v>
+        <v>2.0851999999999999</v>
       </c>
       <c r="J5">
-        <v>83.923333333333332</v>
+        <v>6.9609742857142845E-2</v>
       </c>
       <c r="K5">
-        <v>98.923333333333332</v>
+        <v>0.69185546265608322</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -660,19 +666,19 @@
         <v>22.966666666666669</v>
       </c>
       <c r="G6">
-        <v>37.966666666666661</v>
+        <v>27.816666666666666</v>
       </c>
       <c r="H6">
-        <v>52.966666666666661</v>
+        <v>42.816666666666663</v>
       </c>
       <c r="I6">
-        <v>67.966666666666654</v>
+        <v>3.9511111111111115E-2</v>
       </c>
       <c r="J6">
-        <v>82.966666666666654</v>
+        <v>6.6548301587301588E-3</v>
       </c>
       <c r="K6">
-        <v>97.966666666666654</v>
+        <v>0.4713576338358299</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -695,19 +701,19 @@
         <v>23.346666666666664</v>
       </c>
       <c r="G7">
-        <v>38.346666666666671</v>
+        <v>27.253666666666664</v>
       </c>
       <c r="H7">
-        <v>53.346666666666671</v>
+        <v>42.253666666666668</v>
       </c>
       <c r="I7">
-        <v>68.346666666666678</v>
+        <v>0.77965000000000007</v>
       </c>
       <c r="J7">
-        <v>83.346666666666678</v>
+        <v>5.7082190476190474E-2</v>
       </c>
       <c r="K7">
-        <v>98.346666666666678</v>
+        <v>0.70868881938370343</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -730,19 +736,19 @@
         <v>23.83666666666667</v>
       </c>
       <c r="G8">
-        <v>38.836666666666666</v>
+        <v>29.203666666666667</v>
       </c>
       <c r="H8">
-        <v>53.836666666666666</v>
+        <v>44.203666666666663</v>
       </c>
       <c r="I8">
-        <v>68.836666666666659</v>
+        <v>1.3852666666666666</v>
       </c>
       <c r="J8">
-        <v>83.836666666666659</v>
+        <v>6.5877111111111109E-2</v>
       </c>
       <c r="K8">
-        <v>98.836666666666659</v>
+        <v>0.77510374045899921</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -765,19 +771,19 @@
         <v>23.556666666666668</v>
       </c>
       <c r="G9">
-        <v>38.556666666666665</v>
+        <v>29.053666666666668</v>
       </c>
       <c r="H9">
-        <v>53.556666666666672</v>
+        <v>44.053666666666665</v>
       </c>
       <c r="I9">
-        <v>68.556666666666672</v>
+        <v>2.162266666666667</v>
       </c>
       <c r="J9">
-        <v>83.556666666666672</v>
+        <v>9.6975206349206353E-2</v>
       </c>
       <c r="K9">
-        <v>98.556666666666672</v>
+        <v>0.73586278838772567</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -800,19 +806,19 @@
         <v>22.399999999999995</v>
       </c>
       <c r="G10">
-        <v>37.400000000000006</v>
+        <v>27.293333333333333</v>
       </c>
       <c r="H10">
-        <v>52.400000000000006</v>
+        <v>42.293333333333329</v>
       </c>
       <c r="I10">
-        <v>67.400000000000006</v>
+        <v>3.9333333333333338E-2</v>
       </c>
       <c r="J10">
-        <v>82.4</v>
+        <v>6.0562612380952383E-3</v>
       </c>
       <c r="K10">
-        <v>97.40000000000002</v>
+        <v>1.3438269480979688</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -835,19 +841,19 @@
         <v>22.77</v>
       </c>
       <c r="G11">
-        <v>37.769999999999996</v>
+        <v>26.963333333333338</v>
       </c>
       <c r="H11">
-        <v>52.77</v>
+        <v>41.963333333333338</v>
       </c>
       <c r="I11">
-        <v>67.77</v>
+        <v>0.87604999999999988</v>
       </c>
       <c r="J11">
-        <v>82.77</v>
+        <v>6.8034061904761897E-2</v>
       </c>
       <c r="K11">
-        <v>97.77</v>
+        <v>0.70945423512716277</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -870,19 +876,19 @@
         <v>23.26</v>
       </c>
       <c r="G12">
-        <v>38.26</v>
+        <v>28.463333333333338</v>
       </c>
       <c r="H12">
-        <v>53.26</v>
+        <v>43.463333333333338</v>
       </c>
       <c r="I12">
-        <v>68.260000000000005</v>
+        <v>2.1525000000000003</v>
       </c>
       <c r="J12">
-        <v>83.26</v>
+        <v>9.7284190476190482E-2</v>
       </c>
       <c r="K12">
-        <v>98.259999999999991</v>
+        <v>0.67289063277395789</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -905,19 +911,19 @@
         <v>22.98</v>
       </c>
       <c r="G13">
-        <v>37.980000000000004</v>
+        <v>28.613333333333333</v>
       </c>
       <c r="H13">
-        <v>52.98</v>
+        <v>43.613333333333323</v>
       </c>
       <c r="I13">
-        <v>67.98</v>
+        <v>3.1660777777777778</v>
       </c>
       <c r="J13">
-        <v>82.98</v>
+        <v>0.11360543492063492</v>
       </c>
       <c r="K13">
-        <v>97.98</v>
+        <v>0.68677725899537612</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -940,19 +946,19 @@
         <v>22.7</v>
       </c>
       <c r="G14">
-        <v>37.699999999999996</v>
+        <v>27.139999999999997</v>
       </c>
       <c r="H14">
-        <v>52.699999999999996</v>
+        <v>42.139999999999993</v>
       </c>
       <c r="I14">
-        <v>67.7</v>
+        <v>4.2222222222222217E-2</v>
       </c>
       <c r="J14">
-        <v>82.7</v>
+        <v>7.0733488888888888E-3</v>
       </c>
       <c r="K14">
-        <v>97.7</v>
+        <v>0.78589399607782717</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -975,19 +981,19 @@
         <v>23.069999999999997</v>
       </c>
       <c r="G15">
-        <v>38.07</v>
+        <v>26.577000000000002</v>
       </c>
       <c r="H15">
-        <v>53.069999999999993</v>
+        <v>41.576999999999998</v>
       </c>
       <c r="I15">
-        <v>68.069999999999993</v>
+        <v>0.46706666666666669</v>
       </c>
       <c r="J15">
-        <v>83.07</v>
+        <v>3.690238095238095E-2</v>
       </c>
       <c r="K15">
-        <v>98.07</v>
+        <v>0.65082343443416857</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1010,19 +1016,19 @@
         <v>23.560000000000002</v>
       </c>
       <c r="G16">
-        <v>38.56</v>
+        <v>28.526999999999997</v>
       </c>
       <c r="H16">
-        <v>53.56</v>
+        <v>43.526999999999994</v>
       </c>
       <c r="I16">
-        <v>68.56</v>
+        <v>1.7521152111111109</v>
       </c>
       <c r="J16">
-        <v>83.56</v>
+        <v>8.756786084656086E-2</v>
       </c>
       <c r="K16">
-        <v>98.56</v>
+        <v>0.69448950262240194</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1045,19 +1051,19 @@
         <v>23.28</v>
       </c>
       <c r="G17">
-        <v>38.28</v>
+        <v>28.376999999999999</v>
       </c>
       <c r="H17">
-        <v>53.28</v>
+        <v>43.37700000000001</v>
       </c>
       <c r="I17">
-        <v>68.280000000000015</v>
+        <v>2.7810888888888887</v>
       </c>
       <c r="J17">
-        <v>83.280000000000015</v>
+        <v>0.13468899470899473</v>
       </c>
       <c r="K17">
-        <v>98.280000000000015</v>
+        <v>0.68847663109509283</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1080,19 +1086,19 @@
         <v>20.400000000000002</v>
       </c>
       <c r="G18">
-        <v>35.4</v>
+        <v>28.08</v>
       </c>
       <c r="H18">
-        <v>50.4</v>
+        <v>43.080000000000005</v>
       </c>
       <c r="I18">
-        <v>65.399999999999991</v>
+        <v>0.1399222222222222</v>
       </c>
       <c r="J18">
-        <v>80.399999999999991</v>
+        <v>9.4783222222222224E-3</v>
       </c>
       <c r="K18">
-        <v>95.399999999999991</v>
+        <v>0.47322450429147644</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1115,19 +1121,19 @@
         <v>22.02</v>
       </c>
       <c r="G19">
-        <v>37.020000000000003</v>
+        <v>27.75</v>
       </c>
       <c r="H19">
-        <v>52.02</v>
+        <v>42.75</v>
       </c>
       <c r="I19">
-        <v>67.02</v>
+        <v>1.8740888888888889</v>
       </c>
       <c r="J19">
-        <v>82.02</v>
+        <v>0.15771215873015873</v>
       </c>
       <c r="K19">
-        <v>97.02</v>
+        <v>0.11612743963334682</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1150,19 +1156,19 @@
         <v>24.709999999999997</v>
       </c>
       <c r="G20">
-        <v>39.71</v>
+        <v>29.25</v>
       </c>
       <c r="H20">
-        <v>54.71</v>
+        <v>44.25</v>
       </c>
       <c r="I20">
-        <v>69.709999999999994</v>
+        <v>4.0332088888888888</v>
       </c>
       <c r="J20">
-        <v>84.71</v>
+        <v>0.19247942169312168</v>
       </c>
       <c r="K20">
-        <v>99.71</v>
+        <v>6.7667433283894615E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1185,19 +1191,19 @@
         <v>24.429999999999996</v>
       </c>
       <c r="G21">
-        <v>39.43</v>
+        <v>29.400000000000002</v>
       </c>
       <c r="H21">
-        <v>54.43</v>
+        <v>44.4</v>
       </c>
       <c r="I21">
-        <v>69.429999999999993</v>
+        <v>5.2095888888888888</v>
       </c>
       <c r="J21">
-        <v>84.429999999999993</v>
+        <v>0.18820846031746033</v>
       </c>
       <c r="K21">
-        <v>99.429999999999993</v>
+        <v>5.6554505755805153E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1220,19 +1226,19 @@
         <v>20.74</v>
       </c>
       <c r="G22">
-        <v>35.74</v>
+        <v>28.303333333333331</v>
       </c>
       <c r="H22">
-        <v>50.74</v>
+        <v>43.303333333333335</v>
       </c>
       <c r="I22">
-        <v>65.739999999999995</v>
+        <v>0.11615555555555555</v>
       </c>
       <c r="J22">
-        <v>80.739999999999995</v>
+        <v>1.6720460317460318E-2</v>
       </c>
       <c r="K22">
-        <v>95.740000000000009</v>
+        <v>0.55477212288618638</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1255,19 +1261,19 @@
         <v>22.36</v>
       </c>
       <c r="G23">
-        <v>37.360000000000007</v>
+        <v>27.740333333333336</v>
       </c>
       <c r="H23">
-        <v>52.360000000000007</v>
+        <v>42.740333333333332</v>
       </c>
       <c r="I23">
-        <v>67.36</v>
+        <v>1.4959666666666667</v>
       </c>
       <c r="J23">
-        <v>82.36</v>
+        <v>0.12009438095238095</v>
       </c>
       <c r="K23">
-        <v>97.360000000000014</v>
+        <v>0.14588243862221001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1290,19 +1296,19 @@
         <v>25.05</v>
       </c>
       <c r="G24">
-        <v>40.050000000000004</v>
+        <v>29.690333333333331</v>
       </c>
       <c r="H24">
-        <v>55.050000000000004</v>
+        <v>44.690333333333335</v>
       </c>
       <c r="I24">
-        <v>70.05</v>
+        <v>3.3128477777777778</v>
       </c>
       <c r="J24">
-        <v>85.05</v>
+        <v>0.15797357671957671</v>
       </c>
       <c r="K24">
-        <v>100.05</v>
+        <v>7.6266010336566367E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1325,19 +1331,19 @@
         <v>24.77</v>
       </c>
       <c r="G25">
-        <v>39.770000000000003</v>
+        <v>29.540333333333336</v>
       </c>
       <c r="H25">
-        <v>54.77</v>
+        <v>44.540333333333336</v>
       </c>
       <c r="I25">
-        <v>69.77</v>
+        <v>4.6836577777777784</v>
       </c>
       <c r="J25">
-        <v>84.77</v>
+        <v>0.24182906878306878</v>
       </c>
       <c r="K25">
-        <v>99.77</v>
+        <v>5.8158974505708949E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1360,19 +1366,19 @@
         <v>21.966666666666669</v>
       </c>
       <c r="G26">
-        <v>36.966666666666661</v>
+        <v>28.926666666666666</v>
       </c>
       <c r="H26">
-        <v>51.966666666666661</v>
+        <v>43.926666666666669</v>
       </c>
       <c r="I26">
-        <v>66.966666666666654</v>
+        <v>1.2666666666666666E-2</v>
       </c>
       <c r="J26">
-        <v>81.966666666666654</v>
+        <v>1.2960990476190476E-3</v>
       </c>
       <c r="K26">
-        <v>96.966666666666654</v>
+        <v>0.28714750723849841</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1395,19 +1401,19 @@
         <v>22.456666666666667</v>
       </c>
       <c r="G27">
-        <v>37.456666666666671</v>
+        <v>28.596666666666668</v>
       </c>
       <c r="H27">
-        <v>52.456666666666671</v>
+        <v>43.596666666666671</v>
       </c>
       <c r="I27">
-        <v>67.456666666666663</v>
+        <v>0.64073333333333338</v>
       </c>
       <c r="J27">
-        <v>82.456666666666663</v>
+        <v>5.5113952380952382E-2</v>
       </c>
       <c r="K27">
-        <v>97.456666666666663</v>
+        <v>0.24532071826954141</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1430,19 +1436,19 @@
         <v>22.946666666666669</v>
       </c>
       <c r="G28">
-        <v>37.946666666666665</v>
+        <v>30.096666666666668</v>
       </c>
       <c r="H28">
-        <v>52.946666666666665</v>
+        <v>45.096666666666671</v>
       </c>
       <c r="I28">
-        <v>67.946666666666673</v>
+        <v>1.3556666666666668</v>
       </c>
       <c r="J28">
-        <v>84.71</v>
+        <v>0.19247942169312168</v>
       </c>
       <c r="K28">
-        <v>97.946666666666673</v>
+        <v>0.15692825153775231</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1465,19 +1471,19 @@
         <v>22.666666666666668</v>
       </c>
       <c r="G29">
-        <v>37.666666666666664</v>
+        <v>30.246666666666666</v>
       </c>
       <c r="H29">
-        <v>52.666666666666664</v>
+        <v>45.24666666666667</v>
       </c>
       <c r="I29">
-        <v>67.666666666666671</v>
+        <v>1.8425999999999998</v>
       </c>
       <c r="J29">
-        <v>82.666666666666671</v>
+        <v>6.7046419047619057E-2</v>
       </c>
       <c r="K29">
-        <v>97.666666666666671</v>
+        <v>0.11653901149468017</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1500,19 +1506,19 @@
         <v>22.466666666666669</v>
       </c>
       <c r="G30">
-        <v>37.466666666666669</v>
+        <v>29.393333333333334</v>
       </c>
       <c r="H30">
-        <v>52.466666666666669</v>
+        <v>44.393333333333338</v>
       </c>
       <c r="I30">
-        <v>67.466666666666669</v>
+        <v>1.4444444444444446E-2</v>
       </c>
       <c r="J30">
-        <v>82.466666666666669</v>
+        <v>1.5919311111111112E-3</v>
       </c>
       <c r="K30">
-        <v>97.466666666666654</v>
+        <v>0.32019367627805151</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -1535,19 +1541,19 @@
         <v>22.956666666666667</v>
       </c>
       <c r="G31">
-        <v>37.956666666666671</v>
+        <v>28.830333333333332</v>
       </c>
       <c r="H31">
-        <v>52.956666666666671</v>
+        <v>43.830333333333328</v>
       </c>
       <c r="I31">
-        <v>67.956666666666663</v>
+        <v>0.55610222222222228</v>
       </c>
       <c r="J31">
-        <v>82.956666666666663</v>
+        <v>4.0525444444444447E-2</v>
       </c>
       <c r="K31">
-        <v>97.956666666666663</v>
+        <v>0.28824211620035056</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -1570,19 +1576,19 @@
         <v>23.446666666666669</v>
       </c>
       <c r="G32">
-        <v>38.446666666666673</v>
+        <v>30.780333333333335</v>
       </c>
       <c r="H32">
-        <v>53.44666666666668</v>
+        <v>45.780333333333338</v>
       </c>
       <c r="I32">
-        <v>68.446666666666673</v>
+        <v>1.3665555555555555</v>
       </c>
       <c r="J32">
-        <v>83.446666666666673</v>
+        <v>5.6145169312169313E-2</v>
       </c>
       <c r="K32">
-        <v>98.446666666666673</v>
+        <v>0.16437800120914506</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -1605,19 +1611,19 @@
         <v>23.166666666666668</v>
       </c>
       <c r="G33">
-        <v>38.166666666666671</v>
+        <v>30.630333333333336</v>
       </c>
       <c r="H33">
-        <v>53.166666666666664</v>
+        <v>45.63033333333334</v>
       </c>
       <c r="I33">
-        <v>68.166666666666671</v>
+        <v>1.858788888888889</v>
       </c>
       <c r="J33">
-        <v>83.166666666666671</v>
+        <v>8.5331731216931231E-2</v>
       </c>
       <c r="K33">
-        <v>98.166666666666671</v>
+        <v>0.13517113684389093</v>
       </c>
     </row>
   </sheetData>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712478E-121D-4A11-B6F3-8EF0F41F1C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1221651-4945-4556-973C-CFDE43B806C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,16 +520,16 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="E2">
-        <v>8.3333333333333339</v>
+        <v>752.16975999999988</v>
       </c>
       <c r="F2">
-        <v>23.333333333333332</v>
+        <v>344</v>
       </c>
       <c r="G2">
         <v>28.400000000000002</v>
       </c>
       <c r="H2">
-        <v>43.4</v>
+        <v>0.26276666666666665</v>
       </c>
       <c r="I2">
         <v>4.8000000000000008E-2</v>
@@ -555,16 +555,16 @@
         <v>8.7133333333333329</v>
       </c>
       <c r="E3">
-        <v>8.7133333333333329</v>
+        <v>634.60679266666659</v>
       </c>
       <c r="F3">
-        <v>23.713333333333335</v>
+        <v>290.23333333333335</v>
       </c>
       <c r="G3">
         <v>28.070000000000004</v>
       </c>
       <c r="H3">
-        <v>43.07</v>
+        <v>0.35972756666666666</v>
       </c>
       <c r="I3">
         <v>0.68483333333333329</v>
@@ -590,16 +590,16 @@
         <v>9.2033333333333349</v>
       </c>
       <c r="E4">
-        <v>9.2033333333333349</v>
+        <v>492.48169266666673</v>
       </c>
       <c r="F4">
-        <v>24.203333333333337</v>
+        <v>225.23333333333335</v>
       </c>
       <c r="G4">
         <v>29.570000000000004</v>
       </c>
       <c r="H4">
-        <v>44.57</v>
+        <v>1.3302725415333334</v>
       </c>
       <c r="I4">
         <v>1.2656666666666665</v>
@@ -625,16 +625,16 @@
         <v>8.9233333333333338</v>
       </c>
       <c r="E5">
-        <v>8.9233333333333338</v>
+        <v>197.29879266666669</v>
       </c>
       <c r="F5">
-        <v>23.923333333333336</v>
+        <v>90.233333333333348</v>
       </c>
       <c r="G5">
         <v>29.72</v>
       </c>
       <c r="H5">
-        <v>44.720000000000006</v>
+        <v>3.1394431980186663</v>
       </c>
       <c r="I5">
         <v>2.0851999999999999</v>
@@ -660,16 +660,16 @@
         <v>7.9666666666666677</v>
       </c>
       <c r="E6">
-        <v>7.9666666666666677</v>
+        <v>1431.8008560000001</v>
       </c>
       <c r="F6">
-        <v>22.966666666666669</v>
+        <v>564</v>
       </c>
       <c r="G6">
         <v>27.816666666666666</v>
       </c>
       <c r="H6">
-        <v>42.816666666666663</v>
+        <v>0.18566666666666665</v>
       </c>
       <c r="I6">
         <v>3.9511111111111115E-2</v>
@@ -695,16 +695,16 @@
         <v>8.3466666666666658</v>
       </c>
       <c r="E7">
-        <v>8.3466666666666658</v>
+        <v>1204.168214</v>
       </c>
       <c r="F7">
-        <v>23.346666666666664</v>
+        <v>474.33333333333331</v>
       </c>
       <c r="G7">
         <v>27.253666666666664</v>
       </c>
       <c r="H7">
-        <v>42.253666666666668</v>
+        <v>0.29637969999999997</v>
       </c>
       <c r="I7">
         <v>0.77965000000000007</v>
@@ -730,16 +730,16 @@
         <v>8.8366666666666678</v>
       </c>
       <c r="E8">
-        <v>8.8366666666666678</v>
+        <v>1188.94475218</v>
       </c>
       <c r="F8">
-        <v>23.83666666666667</v>
+        <v>468.33666666666664</v>
       </c>
       <c r="G8">
         <v>29.203666666666667</v>
       </c>
       <c r="H8">
-        <v>44.203666666666663</v>
+        <v>1.0637067433</v>
       </c>
       <c r="I8">
         <v>1.3852666666666666</v>
@@ -765,16 +765,16 @@
         <v>8.5566666666666666</v>
       </c>
       <c r="E9">
-        <v>8.5566666666666666</v>
+        <v>559.35856018000004</v>
       </c>
       <c r="F9">
-        <v>23.556666666666668</v>
+        <v>220.33666666666667</v>
       </c>
       <c r="G9">
         <v>29.053666666666668</v>
       </c>
       <c r="H9">
-        <v>44.053666666666665</v>
+        <v>2.1525169657418801</v>
       </c>
       <c r="I9">
         <v>2.162266666666667</v>
@@ -800,16 +800,16 @@
         <v>7.4000000000000012</v>
       </c>
       <c r="E10">
-        <v>7.4000000000000012</v>
+        <v>2119.9920266666668</v>
       </c>
       <c r="F10">
-        <v>22.399999999999995</v>
+        <v>1065.3333333333333</v>
       </c>
       <c r="G10">
         <v>27.293333333333333</v>
       </c>
       <c r="H10">
-        <v>42.293333333333329</v>
+        <v>0.14330000000000001</v>
       </c>
       <c r="I10">
         <v>3.9333333333333338E-2</v>
@@ -835,16 +835,16 @@
         <v>7.77</v>
       </c>
       <c r="E11">
-        <v>7.77</v>
+        <v>1697.4529400000001</v>
       </c>
       <c r="F11">
-        <v>22.77</v>
+        <v>853</v>
       </c>
       <c r="G11">
         <v>26.963333333333338</v>
       </c>
       <c r="H11">
-        <v>41.963333333333338</v>
+        <v>0.13884336999999999</v>
       </c>
       <c r="I11">
         <v>0.87604999999999988</v>
@@ -870,16 +870,16 @@
         <v>8.26</v>
       </c>
       <c r="E12">
-        <v>8.26</v>
+        <v>1408.9058400000001</v>
       </c>
       <c r="F12">
-        <v>23.26</v>
+        <v>708</v>
       </c>
       <c r="G12">
         <v>28.463333333333338</v>
       </c>
       <c r="H12">
-        <v>43.463333333333338</v>
+        <v>0.46651372320000001</v>
       </c>
       <c r="I12">
         <v>2.1525000000000003</v>
@@ -905,16 +905,16 @@
         <v>7.98</v>
       </c>
       <c r="E13">
-        <v>7.98</v>
+        <v>748.23248000000001</v>
       </c>
       <c r="F13">
-        <v>22.98</v>
+        <v>376</v>
       </c>
       <c r="G13">
         <v>28.613333333333333</v>
       </c>
       <c r="H13">
-        <v>43.613333333333323</v>
+        <v>1.254921915408</v>
       </c>
       <c r="I13">
         <v>3.1660777777777778</v>
@@ -940,16 +940,16 @@
         <v>7.7</v>
       </c>
       <c r="E14">
-        <v>7.7</v>
+        <v>1891.8076533333335</v>
       </c>
       <c r="F14">
-        <v>22.7</v>
+        <v>950.66666666666663</v>
       </c>
       <c r="G14">
         <v>27.139999999999997</v>
       </c>
       <c r="H14">
-        <v>42.139999999999993</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="I14">
         <v>4.2222222222222217E-2</v>
@@ -975,16 +975,16 @@
         <v>8.07</v>
       </c>
       <c r="E15">
-        <v>8.07</v>
+        <v>1542.8182274666667</v>
       </c>
       <c r="F15">
-        <v>23.069999999999997</v>
+        <v>775.29333333333341</v>
       </c>
       <c r="G15">
         <v>26.577000000000002</v>
       </c>
       <c r="H15">
-        <v>41.576999999999998</v>
+        <v>0.143376</v>
       </c>
       <c r="I15">
         <v>0.46706666666666669</v>
@@ -1010,16 +1010,16 @@
         <v>8.56</v>
       </c>
       <c r="E16">
-        <v>8.56</v>
+        <v>1254.2711274666669</v>
       </c>
       <c r="F16">
-        <v>23.560000000000002</v>
+        <v>630.29333333333341</v>
       </c>
       <c r="G16">
         <v>28.526999999999997</v>
       </c>
       <c r="H16">
-        <v>43.526999999999994</v>
+        <v>0.51041856000000008</v>
       </c>
       <c r="I16">
         <v>1.7521152111111109</v>
@@ -1045,16 +1045,16 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="E17">
-        <v>8.2799999999999994</v>
+        <v>699.06670746666668</v>
       </c>
       <c r="F17">
-        <v>23.28</v>
+        <v>351.29333333333335</v>
       </c>
       <c r="G17">
         <v>28.376999999999999</v>
       </c>
       <c r="H17">
-        <v>43.37700000000001</v>
+        <v>1.2709422144</v>
       </c>
       <c r="I17">
         <v>2.7810888888888887</v>
@@ -1080,16 +1080,16 @@
         <v>5.3999999999999995</v>
       </c>
       <c r="E18">
-        <v>5.3999999999999995</v>
+        <v>1078.5600000000002</v>
       </c>
       <c r="F18">
-        <v>20.400000000000002</v>
+        <v>570.66666666666663</v>
       </c>
       <c r="G18">
         <v>28.08</v>
       </c>
       <c r="H18">
-        <v>43.080000000000005</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="I18">
         <v>0.1399222222222222</v>
@@ -1115,16 +1115,16 @@
         <v>7.0200000000000005</v>
       </c>
       <c r="E19">
-        <v>7.0200000000000005</v>
+        <v>981.91800000000001</v>
       </c>
       <c r="F19">
-        <v>22.02</v>
+        <v>519.5333333333333</v>
       </c>
       <c r="G19">
         <v>27.75</v>
       </c>
       <c r="H19">
-        <v>42.75</v>
+        <v>2.5635100000000004</v>
       </c>
       <c r="I19">
         <v>1.8740888888888889</v>
@@ -1150,16 +1150,16 @@
         <v>9.7100000000000009</v>
       </c>
       <c r="E20">
-        <v>9.7100000000000009</v>
+        <v>650.03399999999999</v>
       </c>
       <c r="F20">
-        <v>24.709999999999997</v>
+        <v>343.93333333333334</v>
       </c>
       <c r="G20">
         <v>29.25</v>
       </c>
       <c r="H20">
-        <v>44.25</v>
+        <v>4.0221471900000001</v>
       </c>
       <c r="I20">
         <v>4.0332088888888888</v>
@@ -1185,16 +1185,16 @@
         <v>9.4300000000000015</v>
       </c>
       <c r="E21">
-        <v>9.4300000000000015</v>
+        <v>321.17399999999992</v>
       </c>
       <c r="F21">
-        <v>24.429999999999996</v>
+        <v>169.93333333333331</v>
       </c>
       <c r="G21">
         <v>29.400000000000002</v>
       </c>
       <c r="H21">
-        <v>44.4</v>
+        <v>6.6767643353999988</v>
       </c>
       <c r="I21">
         <v>5.2095888888888888</v>
@@ -1220,16 +1220,16 @@
         <v>5.7399999999999993</v>
       </c>
       <c r="E22">
-        <v>5.7399999999999993</v>
+        <v>1273.2299999999998</v>
       </c>
       <c r="F22">
-        <v>20.74</v>
+        <v>673.66666666666663</v>
       </c>
       <c r="G22">
         <v>28.303333333333331</v>
       </c>
       <c r="H22">
-        <v>43.303333333333335</v>
+        <v>0.56099999999999994</v>
       </c>
       <c r="I22">
         <v>0.11615555555555555</v>
@@ -1255,16 +1255,16 @@
         <v>7.3599999999999994</v>
       </c>
       <c r="E23">
-        <v>7.3599999999999994</v>
+        <v>1132.1099999999999</v>
       </c>
       <c r="F23">
-        <v>22.36</v>
+        <v>599</v>
       </c>
       <c r="G23">
         <v>27.740333333333336</v>
       </c>
       <c r="H23">
-        <v>42.740333333333332</v>
+        <v>1.8849599999999997</v>
       </c>
       <c r="I23">
         <v>1.4959666666666667</v>
@@ -1290,16 +1290,16 @@
         <v>10.049999999999999</v>
       </c>
       <c r="E24">
-        <v>10.049999999999999</v>
+        <v>948.15</v>
       </c>
       <c r="F24">
-        <v>25.05</v>
+        <v>501.66666666666669</v>
       </c>
       <c r="G24">
         <v>29.690333333333331</v>
       </c>
       <c r="H24">
-        <v>44.690333333333335</v>
+        <v>3.8830176000000001</v>
       </c>
       <c r="I24">
         <v>3.3128477777777778</v>
@@ -1325,16 +1325,16 @@
         <v>9.7700000000000014</v>
       </c>
       <c r="E25">
-        <v>9.7700000000000014</v>
+        <v>401.94</v>
       </c>
       <c r="F25">
-        <v>24.77</v>
+        <v>212.66666666666666</v>
       </c>
       <c r="G25">
         <v>29.540333333333336</v>
       </c>
       <c r="H25">
-        <v>44.540333333333336</v>
+        <v>6.3642658463999995</v>
       </c>
       <c r="I25">
         <v>4.6836577777777784</v>
@@ -1360,16 +1360,16 @@
         <v>6.9666666666666659</v>
       </c>
       <c r="E26">
-        <v>6.9666666666666659</v>
+        <v>2925.8179133333338</v>
       </c>
       <c r="F26">
-        <v>21.966666666666669</v>
+        <v>2148.6666666666665</v>
       </c>
       <c r="G26">
         <v>28.926666666666666</v>
       </c>
       <c r="H26">
-        <v>43.926666666666669</v>
+        <v>0.1343</v>
       </c>
       <c r="I26">
         <v>1.2666666666666666E-2</v>
@@ -1395,16 +1395,16 @@
         <v>7.456666666666667</v>
       </c>
       <c r="E27">
-        <v>7.456666666666667</v>
+        <v>2592.1130840000001</v>
       </c>
       <c r="F27">
-        <v>22.456666666666667</v>
+        <v>1903.6000000000001</v>
       </c>
       <c r="G27">
         <v>28.596666666666668</v>
       </c>
       <c r="H27">
-        <v>43.596666666666671</v>
+        <v>0.15559998</v>
       </c>
       <c r="I27">
         <v>0.64073333333333338</v>
@@ -1430,16 +1430,16 @@
         <v>7.9466666666666681</v>
       </c>
       <c r="E28">
-        <v>7.9466666666666681</v>
+        <v>2478.6389173333337</v>
       </c>
       <c r="F28">
-        <v>22.946666666666669</v>
+        <v>1820.2666666666667</v>
       </c>
       <c r="G28">
         <v>30.096666666666668</v>
       </c>
       <c r="H28">
-        <v>45.096666666666671</v>
+        <v>0.21161597280000002</v>
       </c>
       <c r="I28">
         <v>1.3556666666666668</v>
@@ -1465,16 +1465,16 @@
         <v>7.666666666666667</v>
       </c>
       <c r="E29">
-        <v>7.666666666666667</v>
+        <v>1494.1370473333336</v>
       </c>
       <c r="F29">
-        <v>22.666666666666668</v>
+        <v>1097.2666666666667</v>
       </c>
       <c r="G29">
         <v>30.246666666666666</v>
       </c>
       <c r="H29">
-        <v>45.24666666666667</v>
+        <v>0.61347470514720015</v>
       </c>
       <c r="I29">
         <v>1.8425999999999998</v>
@@ -1500,16 +1500,16 @@
         <v>7.4666666666666659</v>
       </c>
       <c r="E30">
-        <v>7.4666666666666659</v>
+        <v>2997.07969</v>
       </c>
       <c r="F30">
-        <v>22.466666666666669</v>
+        <v>2201</v>
       </c>
       <c r="G30">
         <v>29.393333333333334</v>
       </c>
       <c r="H30">
-        <v>44.393333333333338</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I30">
         <v>1.4444444444444446E-2</v>
@@ -1535,16 +1535,16 @@
         <v>7.956666666666667</v>
       </c>
       <c r="E31">
-        <v>7.956666666666667</v>
+        <v>2790.1028100000003</v>
       </c>
       <c r="F31">
-        <v>22.956666666666667</v>
+        <v>2049</v>
       </c>
       <c r="G31">
         <v>28.830333333333332</v>
       </c>
       <c r="H31">
-        <v>43.830333333333328</v>
+        <v>0.20340000000000003</v>
       </c>
       <c r="I31">
         <v>0.55610222222222228</v>
@@ -1570,16 +1570,16 @@
         <v>8.4466666666666672</v>
       </c>
       <c r="E32">
-        <v>8.4466666666666672</v>
+        <v>2441.51017</v>
       </c>
       <c r="F32">
-        <v>23.446666666666669</v>
+        <v>1793</v>
       </c>
       <c r="G32">
         <v>30.780333333333335</v>
       </c>
       <c r="H32">
-        <v>45.780333333333338</v>
+        <v>0.34374600000000005</v>
       </c>
       <c r="I32">
         <v>1.3665555555555555</v>
@@ -1605,16 +1605,16 @@
         <v>8.1666666666666696</v>
       </c>
       <c r="E33">
-        <v>8.1666666666666696</v>
+        <v>1454.2849200000001</v>
       </c>
       <c r="F33">
-        <v>23.166666666666668</v>
+        <v>1068</v>
       </c>
       <c r="G33">
         <v>30.630333333333336</v>
       </c>
       <c r="H33">
-        <v>45.63033333333334</v>
+        <v>0.92773607940000014</v>
       </c>
       <c r="I33">
         <v>1.858788888888889</v>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1221651-4945-4556-973C-CFDE43B806C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B7BD1-FD40-4D76-A5B4-83EDEA4D91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1445,7 +1445,7 @@
         <v>1.3556666666666668</v>
       </c>
       <c r="J28">
-        <v>0.19247942169312168</v>
+        <v>6.1270507936507936E-2</v>
       </c>
       <c r="K28">
         <v>0.15692825153775231</v>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B7BD1-FD40-4D76-A5B4-83EDEA4D91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D3AD1-FEE4-420D-B57A-4129F19DE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -485,10 +485,10 @@
         <v>pH_change</v>
       </c>
       <c r="E1" t="str">
-        <v>Electrical Conductvity</v>
+        <v>Electrical Conductivity</v>
       </c>
       <c r="F1" t="str">
-        <v>Total Dissolved susbtances</v>
+        <v>Total Dissolved substances</v>
       </c>
       <c r="G1" t="str">
         <v>Temperature</v>

--- a/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D3AD1-FEE4-420D-B57A-4129F19DE134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD23D88-1470-4C0A-99AF-7ADECDE254BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="9096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1628,5 +1628,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>